--- a/data/pca/factorExposure/factorExposure_2010-03-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-30.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01590319714191901</v>
+        <v>-0.01702851504939688</v>
       </c>
       <c r="C2">
-        <v>-0.004030221451764253</v>
+        <v>0.001021712818128426</v>
       </c>
       <c r="D2">
-        <v>0.01400584454548867</v>
+        <v>0.008390635359804255</v>
       </c>
       <c r="E2">
-        <v>0.009563047416247288</v>
+        <v>1.896073479962843e-05</v>
       </c>
       <c r="F2">
-        <v>0.01312521503784117</v>
+        <v>-0.01010284393405272</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1211747207447388</v>
+        <v>-0.09344578373804727</v>
       </c>
       <c r="C4">
-        <v>0.0694798117790877</v>
+        <v>0.016135082154827</v>
       </c>
       <c r="D4">
-        <v>0.008736925812240259</v>
+        <v>0.08459779497311475</v>
       </c>
       <c r="E4">
-        <v>-0.005649854138028785</v>
+        <v>-0.03072868568944098</v>
       </c>
       <c r="F4">
-        <v>-0.005943959102528043</v>
+        <v>0.03079027285630707</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1203936199347962</v>
+        <v>-0.1547392287028498</v>
       </c>
       <c r="C6">
-        <v>-0.01027257269893278</v>
+        <v>0.02467708134994104</v>
       </c>
       <c r="D6">
-        <v>0.01251834304772764</v>
+        <v>-0.02279040199334319</v>
       </c>
       <c r="E6">
-        <v>0.02768041421895708</v>
+        <v>-0.008796818108617967</v>
       </c>
       <c r="F6">
-        <v>-0.05817056086852585</v>
+        <v>0.04905873260868453</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07446019858940195</v>
+        <v>-0.05911178980665304</v>
       </c>
       <c r="C7">
-        <v>0.06942779051492168</v>
+        <v>-0.0007339797761847848</v>
       </c>
       <c r="D7">
-        <v>0.03422946151496529</v>
+        <v>0.05229353336640113</v>
       </c>
       <c r="E7">
-        <v>0.0222064036745626</v>
+        <v>-0.01540342590588802</v>
       </c>
       <c r="F7">
-        <v>0.03423628831782014</v>
+        <v>0.04937039719307892</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05424528258069024</v>
+        <v>-0.05774249140495611</v>
       </c>
       <c r="C8">
-        <v>0.02932322569809409</v>
+        <v>-0.01312608331623503</v>
       </c>
       <c r="D8">
-        <v>0.01837412751962349</v>
+        <v>0.03246317939029549</v>
       </c>
       <c r="E8">
-        <v>-0.009435736444767969</v>
+        <v>-0.0157561009930653</v>
       </c>
       <c r="F8">
-        <v>-0.0243583499148963</v>
+        <v>-0.02967056873524597</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08672094107498421</v>
+        <v>-0.07118281936663368</v>
       </c>
       <c r="C9">
-        <v>0.05304941614145489</v>
+        <v>0.01217704405096024</v>
       </c>
       <c r="D9">
-        <v>0.01664442460241448</v>
+        <v>0.08375200213119871</v>
       </c>
       <c r="E9">
-        <v>-0.01441331180612671</v>
+        <v>-0.02509796031611981</v>
       </c>
       <c r="F9">
-        <v>0.009908166808404185</v>
+        <v>0.05281670619477322</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1032668491975335</v>
+        <v>-0.0954520753055379</v>
       </c>
       <c r="C10">
-        <v>-0.1786217519828245</v>
+        <v>0.01770772486245686</v>
       </c>
       <c r="D10">
-        <v>-0.009417626554129767</v>
+        <v>-0.1715942601426389</v>
       </c>
       <c r="E10">
-        <v>0.006757958689742024</v>
+        <v>0.04080403611413102</v>
       </c>
       <c r="F10">
-        <v>0.047546872866856</v>
+        <v>-0.05400142386150681</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08035404457145139</v>
+        <v>-0.08743829814907023</v>
       </c>
       <c r="C11">
-        <v>0.05574499708899665</v>
+        <v>0.01164387306918332</v>
       </c>
       <c r="D11">
-        <v>0.02733923797692583</v>
+        <v>0.1145081324829682</v>
       </c>
       <c r="E11">
-        <v>-0.02040911200821444</v>
+        <v>-0.049688947020492</v>
       </c>
       <c r="F11">
-        <v>-0.01022428187025104</v>
+        <v>0.01916682530474452</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08296422963347329</v>
+        <v>-0.0919150731932343</v>
       </c>
       <c r="C12">
-        <v>0.07982854893258291</v>
+        <v>0.009255926756416163</v>
       </c>
       <c r="D12">
-        <v>0.03909108317408599</v>
+        <v>0.1233167312844073</v>
       </c>
       <c r="E12">
-        <v>-0.06326848965075624</v>
+        <v>-0.04873078322955205</v>
       </c>
       <c r="F12">
-        <v>0.01998435996316791</v>
+        <v>0.01930120402393692</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03182960592152773</v>
+        <v>-0.0427804842131722</v>
       </c>
       <c r="C13">
-        <v>0.03351416027401714</v>
+        <v>0.003777874503789286</v>
       </c>
       <c r="D13">
-        <v>0.008432820652047609</v>
+        <v>0.0476138607946918</v>
       </c>
       <c r="E13">
-        <v>0.0206244253633237</v>
+        <v>0.01119563192718852</v>
       </c>
       <c r="F13">
-        <v>0.01018027522887284</v>
+        <v>0.01273503089402812</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03543808071545441</v>
+        <v>-0.02239518822296833</v>
       </c>
       <c r="C14">
-        <v>0.01980500156394305</v>
+        <v>0.01431865789887587</v>
       </c>
       <c r="D14">
-        <v>-0.005720683617343996</v>
+        <v>0.03134168604789094</v>
       </c>
       <c r="E14">
-        <v>-0.02196675393030123</v>
+        <v>-0.01892789419087007</v>
       </c>
       <c r="F14">
-        <v>-0.003638705932721918</v>
+        <v>0.01725595381679898</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0172997432576172</v>
+        <v>-0.03143114617855926</v>
       </c>
       <c r="C15">
-        <v>0.007424086663451498</v>
+        <v>0.005441485875592437</v>
       </c>
       <c r="D15">
-        <v>0.01275817371333374</v>
+        <v>0.04499310532345684</v>
       </c>
       <c r="E15">
-        <v>0.04537154249741579</v>
+        <v>-0.009188093360944198</v>
       </c>
       <c r="F15">
-        <v>0.01895165142192739</v>
+        <v>0.02945786194033799</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0870104631651606</v>
+        <v>-0.07312675169295965</v>
       </c>
       <c r="C16">
-        <v>0.06588255459971179</v>
+        <v>0.003122151895699603</v>
       </c>
       <c r="D16">
-        <v>0.03088034004364664</v>
+        <v>0.1181252000019821</v>
       </c>
       <c r="E16">
-        <v>-0.04459553030976248</v>
+        <v>-0.0640911067642161</v>
       </c>
       <c r="F16">
-        <v>-0.004567092660537046</v>
+        <v>0.0277777981594878</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02376638359369748</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003383668500428956</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.0180572766284616</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.008658711709590214</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.01709919461826494</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0484629540467565</v>
+        <v>-0.06049904184976668</v>
       </c>
       <c r="C20">
-        <v>0.02953256407929665</v>
+        <v>0.0007141647086517421</v>
       </c>
       <c r="D20">
-        <v>-0.01592411784086035</v>
+        <v>0.07442897464691188</v>
       </c>
       <c r="E20">
-        <v>0.02798739475661607</v>
+        <v>-0.0559797474417551</v>
       </c>
       <c r="F20">
-        <v>0.007497676842852047</v>
+        <v>0.02714803771105269</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03171107440208984</v>
+        <v>-0.03887301052339904</v>
       </c>
       <c r="C21">
-        <v>0.0135669937503106</v>
+        <v>0.006949901405136413</v>
       </c>
       <c r="D21">
-        <v>-0.02086879094925411</v>
+        <v>0.03642581038134372</v>
       </c>
       <c r="E21">
-        <v>-0.01541541629734989</v>
+        <v>0.007868449244748221</v>
       </c>
       <c r="F21">
-        <v>-0.02299827111704823</v>
+        <v>-0.02148310818760934</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03135158583623936</v>
+        <v>-0.04336008057644521</v>
       </c>
       <c r="C22">
-        <v>-0.02680548888903079</v>
+        <v>0.0004158500568160753</v>
       </c>
       <c r="D22">
-        <v>0.05627914116890591</v>
+        <v>-0.0002051033334463348</v>
       </c>
       <c r="E22">
-        <v>0.6046977600007261</v>
+        <v>-0.02918230304193187</v>
       </c>
       <c r="F22">
-        <v>0.1662670414661405</v>
+        <v>-0.006726587287208943</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03158008794318942</v>
+        <v>-0.04341412872940418</v>
       </c>
       <c r="C23">
-        <v>-0.02630738348610167</v>
+        <v>0.0004381949835142221</v>
       </c>
       <c r="D23">
-        <v>0.0575173320558213</v>
+        <v>-7.854399248884077e-05</v>
       </c>
       <c r="E23">
-        <v>0.6079955052410067</v>
+        <v>-0.02954176637046589</v>
       </c>
       <c r="F23">
-        <v>0.1650428407790156</v>
+        <v>-0.00627336046474646</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08822585885723661</v>
+        <v>-0.07956409758658316</v>
       </c>
       <c r="C24">
-        <v>0.06200318918099356</v>
+        <v>0.003383947991574218</v>
       </c>
       <c r="D24">
-        <v>0.01775938866749483</v>
+        <v>0.1185580997985648</v>
       </c>
       <c r="E24">
-        <v>-0.03459062937472053</v>
+        <v>-0.05194855246282042</v>
       </c>
       <c r="F24">
-        <v>0.003592155522309792</v>
+        <v>0.02077778125042837</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09319583217543709</v>
+        <v>-0.08464946760310846</v>
       </c>
       <c r="C25">
-        <v>0.06022440839694175</v>
+        <v>0.005476718263567374</v>
       </c>
       <c r="D25">
-        <v>0.03423752467597989</v>
+        <v>0.1071967776945758</v>
       </c>
       <c r="E25">
-        <v>-0.0658970557032782</v>
+        <v>-0.03465894455029663</v>
       </c>
       <c r="F25">
-        <v>0.01541914362557656</v>
+        <v>0.02810375510176869</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.03769084277677823</v>
+        <v>-0.05442742065743759</v>
       </c>
       <c r="C26">
-        <v>-0.01772595446317526</v>
+        <v>0.01496142773795889</v>
       </c>
       <c r="D26">
-        <v>-0.01695316899173514</v>
+        <v>0.03786764810878675</v>
       </c>
       <c r="E26">
-        <v>0.01192011871044085</v>
+        <v>-0.02787292720944639</v>
       </c>
       <c r="F26">
-        <v>-0.02722268279201513</v>
+        <v>-0.01317008184958085</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1098921240950054</v>
+        <v>-0.1436781310897493</v>
       </c>
       <c r="C28">
-        <v>-0.3164036101673566</v>
+        <v>0.01609369139483548</v>
       </c>
       <c r="D28">
-        <v>0.0158439760810917</v>
+        <v>-0.2657770119711553</v>
       </c>
       <c r="E28">
-        <v>-0.03876865075967788</v>
+        <v>0.06978772553660734</v>
       </c>
       <c r="F28">
-        <v>-0.01233468390650262</v>
+        <v>0.0288389921748658</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02968588558624813</v>
+        <v>-0.02701765784862972</v>
       </c>
       <c r="C29">
-        <v>0.01482032780029726</v>
+        <v>0.008769135470538529</v>
       </c>
       <c r="D29">
-        <v>0.002159939658712169</v>
+        <v>0.03004599130912015</v>
       </c>
       <c r="E29">
-        <v>-0.03779446958694647</v>
+        <v>-0.01193711897426728</v>
       </c>
       <c r="F29">
-        <v>0.03300944272888552</v>
+        <v>-0.01429320455282474</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1035141947028917</v>
+        <v>-0.0624361224102883</v>
       </c>
       <c r="C30">
-        <v>0.08701360318415252</v>
+        <v>0.004576926918140113</v>
       </c>
       <c r="D30">
-        <v>0.03860583048101022</v>
+        <v>0.08666660717155346</v>
       </c>
       <c r="E30">
-        <v>-0.04726463261879461</v>
+        <v>-0.02526931760288631</v>
       </c>
       <c r="F30">
-        <v>-0.05180316004113789</v>
+        <v>0.1034530255026405</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02878956726321745</v>
+        <v>-0.0481708948110285</v>
       </c>
       <c r="C31">
-        <v>0.02952647586451706</v>
+        <v>0.0149578929506919</v>
       </c>
       <c r="D31">
-        <v>-0.002168879487770434</v>
+        <v>0.02795968479359679</v>
       </c>
       <c r="E31">
-        <v>0.003162948366077903</v>
+        <v>-0.02741953754405235</v>
       </c>
       <c r="F31">
-        <v>0.003481832162632318</v>
+        <v>-0.005522097970527207</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05957956430470249</v>
+        <v>-0.04776902710380997</v>
       </c>
       <c r="C32">
-        <v>0.008629693480409414</v>
+        <v>-0.0002292819381649508</v>
       </c>
       <c r="D32">
-        <v>-0.01534995512570412</v>
+        <v>0.03048246137491564</v>
       </c>
       <c r="E32">
-        <v>-0.06827848691697078</v>
+        <v>-0.02990279090326235</v>
       </c>
       <c r="F32">
-        <v>-0.07324587814445031</v>
+        <v>0.00223816071783831</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09734858890668734</v>
+        <v>-0.08964543585671293</v>
       </c>
       <c r="C33">
-        <v>0.06645680027819829</v>
+        <v>0.008852160221807244</v>
       </c>
       <c r="D33">
-        <v>0.07945793328601113</v>
+        <v>0.09602845325102197</v>
       </c>
       <c r="E33">
-        <v>-0.02339289151570571</v>
+        <v>-0.04736384882598196</v>
       </c>
       <c r="F33">
-        <v>0.01227595697618808</v>
+        <v>0.0400987421260715</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07532317767548312</v>
+        <v>-0.0673108126452106</v>
       </c>
       <c r="C34">
-        <v>0.05892236353608307</v>
+        <v>0.01182641467265523</v>
       </c>
       <c r="D34">
-        <v>0.02269755337186628</v>
+        <v>0.09883107013690207</v>
       </c>
       <c r="E34">
-        <v>-0.03749700750673353</v>
+        <v>-0.03619877487974398</v>
       </c>
       <c r="F34">
-        <v>0.003559926264147352</v>
+        <v>0.03806605342433303</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.009392226244977635</v>
+        <v>-0.02454098325280406</v>
       </c>
       <c r="C35">
-        <v>0.01353507860139441</v>
+        <v>0.002465024051958903</v>
       </c>
       <c r="D35">
-        <v>0.00438776222514282</v>
+        <v>0.01125893588797561</v>
       </c>
       <c r="E35">
-        <v>-0.003889565393184629</v>
+        <v>-0.01098923039972373</v>
       </c>
       <c r="F35">
-        <v>0.01409237178023608</v>
+        <v>0.008798505175885169</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02652849260611993</v>
+        <v>-0.02432328142370908</v>
       </c>
       <c r="C36">
-        <v>0.01265119177543011</v>
+        <v>0.007258494017678345</v>
       </c>
       <c r="D36">
-        <v>0.007112316049372896</v>
+        <v>0.0373343264652695</v>
       </c>
       <c r="E36">
-        <v>0.007197157911009952</v>
+        <v>-0.01804920880847623</v>
       </c>
       <c r="F36">
-        <v>-0.01288613254600749</v>
+        <v>0.01304266855902717</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.007261888751675639</v>
+        <v>-0.001430931108520312</v>
       </c>
       <c r="C38">
-        <v>0.008367909424941205</v>
+        <v>0.0002236842656719587</v>
       </c>
       <c r="D38">
-        <v>0.006567307397338901</v>
+        <v>0.001040275274095569</v>
       </c>
       <c r="E38">
-        <v>0.02148575872970739</v>
+        <v>-0.00123755509329408</v>
       </c>
       <c r="F38">
-        <v>0.03130021086240405</v>
+        <v>-0.0009268080461722151</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1266750121587572</v>
+        <v>-0.1077752874179244</v>
       </c>
       <c r="C39">
-        <v>0.1175368862428516</v>
+        <v>0.01687469995839807</v>
       </c>
       <c r="D39">
-        <v>0.0661962068912391</v>
+        <v>0.155059447919195</v>
       </c>
       <c r="E39">
-        <v>-0.1454510444460993</v>
+        <v>-0.06262230900333746</v>
       </c>
       <c r="F39">
-        <v>0.004358565395477869</v>
+        <v>0.02375215467849003</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.008615220109131549</v>
+        <v>-0.03715551204893698</v>
       </c>
       <c r="C40">
-        <v>0.02913126297270587</v>
+        <v>0.00734280014275801</v>
       </c>
       <c r="D40">
-        <v>-0.009389376621853872</v>
+        <v>0.03144465500573868</v>
       </c>
       <c r="E40">
-        <v>0.0657069496764114</v>
+        <v>-0.003391638117790706</v>
       </c>
       <c r="F40">
-        <v>0.03647909428863332</v>
+        <v>-0.01381191845810451</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0238074211347301</v>
+        <v>-0.02638471551631965</v>
       </c>
       <c r="C41">
-        <v>-0.001177728539809672</v>
+        <v>0.006591727647004489</v>
       </c>
       <c r="D41">
-        <v>-0.006722681229436356</v>
+        <v>0.01156054601131875</v>
       </c>
       <c r="E41">
-        <v>-0.00800477461514686</v>
+        <v>-0.01268869976705867</v>
       </c>
       <c r="F41">
-        <v>0.008983360164542516</v>
+        <v>-0.00869589249960152</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03600147142126554</v>
+        <v>-0.04046909039812285</v>
       </c>
       <c r="C43">
-        <v>0.004308861113600274</v>
+        <v>0.006768334037525534</v>
       </c>
       <c r="D43">
-        <v>0.01606891504570113</v>
+        <v>0.02103014323456818</v>
       </c>
       <c r="E43">
-        <v>-0.003791717006699592</v>
+        <v>-0.02480047104070471</v>
       </c>
       <c r="F43">
-        <v>-0.002252749359525196</v>
+        <v>-0.01346490961188847</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1311857883433354</v>
+        <v>-0.07602281763602645</v>
       </c>
       <c r="C44">
-        <v>0.1363943862763926</v>
+        <v>0.02175648338993311</v>
       </c>
       <c r="D44">
-        <v>0.05770509169006628</v>
+        <v>0.09456962332364272</v>
       </c>
       <c r="E44">
-        <v>0.09709293790925065</v>
+        <v>-0.07586860849295649</v>
       </c>
       <c r="F44">
-        <v>0.1180398406802991</v>
+        <v>0.1844023179688118</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01825944223627933</v>
+        <v>-0.02245717712721236</v>
       </c>
       <c r="C46">
-        <v>-0.009930604201953113</v>
+        <v>0.003812699893053954</v>
       </c>
       <c r="D46">
-        <v>0.01943506252737404</v>
+        <v>0.0119246852197058</v>
       </c>
       <c r="E46">
-        <v>0.02162966582179944</v>
+        <v>-0.02346004355628843</v>
       </c>
       <c r="F46">
-        <v>0.02881018084013551</v>
+        <v>-0.0004456866672471045</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03780762086348171</v>
+        <v>-0.05163948526905626</v>
       </c>
       <c r="C47">
-        <v>0.02200312099459693</v>
+        <v>0.003279175243545948</v>
       </c>
       <c r="D47">
-        <v>-0.00355395457949042</v>
+        <v>0.01409319034979515</v>
       </c>
       <c r="E47">
-        <v>-0.005462624553160022</v>
+        <v>-0.02225432629649354</v>
       </c>
       <c r="F47">
-        <v>0.00225545275883375</v>
+        <v>-0.04458838590998401</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.03507528185295681</v>
+        <v>-0.0474302732322061</v>
       </c>
       <c r="C48">
-        <v>0.0001159905814465173</v>
+        <v>0.002838862656951841</v>
       </c>
       <c r="D48">
-        <v>0.006848585173598457</v>
+        <v>0.04912065695170234</v>
       </c>
       <c r="E48">
-        <v>-0.008504321038894692</v>
+        <v>0.003955345558751564</v>
       </c>
       <c r="F48">
-        <v>0.002118001168006305</v>
+        <v>0.00974886417720372</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.227608355047021</v>
+        <v>-0.2026927488508865</v>
       </c>
       <c r="C49">
-        <v>-0.008539685444549333</v>
+        <v>0.01772344777541853</v>
       </c>
       <c r="D49">
-        <v>-0.05030900488483558</v>
+        <v>-0.01057206243132601</v>
       </c>
       <c r="E49">
-        <v>-0.01525753838459227</v>
+        <v>-0.03313096221512354</v>
       </c>
       <c r="F49">
-        <v>0.04799783840201256</v>
+        <v>0.03041899592982324</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03780826361225877</v>
+        <v>-0.0481384827768187</v>
       </c>
       <c r="C50">
-        <v>0.0224175322404019</v>
+        <v>0.01109499745099733</v>
       </c>
       <c r="D50">
-        <v>-0.007582948132767995</v>
+        <v>0.02667097989410116</v>
       </c>
       <c r="E50">
-        <v>-0.009256045057878087</v>
+        <v>-0.02990258758474851</v>
       </c>
       <c r="F50">
-        <v>0.003518047222305997</v>
+        <v>0.008477681025768551</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01151085100717377</v>
+        <v>-0.002177356234933429</v>
       </c>
       <c r="C51">
-        <v>-0.01672366485331904</v>
+        <v>0.000549992875125045</v>
       </c>
       <c r="D51">
-        <v>0.01413412090908335</v>
+        <v>-0.002322438338444973</v>
       </c>
       <c r="E51">
-        <v>0.006621102152785208</v>
+        <v>0.0001441130282175763</v>
       </c>
       <c r="F51">
-        <v>0.01240599430732173</v>
+        <v>0.004748394885248542</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1060979490318849</v>
+        <v>-0.1447058867562444</v>
       </c>
       <c r="C52">
-        <v>0.08214983681920354</v>
+        <v>0.01385611343827052</v>
       </c>
       <c r="D52">
-        <v>0.01790152877533766</v>
+        <v>0.05136035430377875</v>
       </c>
       <c r="E52">
-        <v>-0.009740587711427454</v>
+        <v>-0.02480178005204207</v>
       </c>
       <c r="F52">
-        <v>0.01491091356109216</v>
+        <v>0.03399500238492356</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1616284910347069</v>
+        <v>-0.1739424304236429</v>
       </c>
       <c r="C53">
-        <v>0.03911257926600721</v>
+        <v>0.01662845763872324</v>
       </c>
       <c r="D53">
-        <v>0.01213474695604255</v>
+        <v>0.01201515832807461</v>
       </c>
       <c r="E53">
-        <v>0.02452367616383023</v>
+        <v>-0.03598975372756689</v>
       </c>
       <c r="F53">
-        <v>0.03314985083247406</v>
+        <v>0.06660824245825299</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04951415974621194</v>
+        <v>-0.02177438778064706</v>
       </c>
       <c r="C54">
-        <v>0.03692551147290032</v>
+        <v>0.01229316346481307</v>
       </c>
       <c r="D54">
-        <v>0.001396635444032219</v>
+        <v>0.03304992181037312</v>
       </c>
       <c r="E54">
-        <v>0.02394708974301998</v>
+        <v>-0.0156599974537497</v>
       </c>
       <c r="F54">
-        <v>0.004475893607106002</v>
+        <v>-0.006617758282752334</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08269428383877346</v>
+        <v>-0.1143161353332326</v>
       </c>
       <c r="C55">
-        <v>0.02922489498806016</v>
+        <v>0.01545877550513466</v>
       </c>
       <c r="D55">
-        <v>0.05754230373149807</v>
+        <v>0.01107563555177186</v>
       </c>
       <c r="E55">
-        <v>-0.02480965430183648</v>
+        <v>-0.03049212092381746</v>
       </c>
       <c r="F55">
-        <v>0.0109297331345598</v>
+        <v>0.04508965024120907</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1560520304831079</v>
+        <v>-0.1774708916121477</v>
       </c>
       <c r="C56">
-        <v>0.05385762388177379</v>
+        <v>0.01411745929345623</v>
       </c>
       <c r="D56">
-        <v>0.0195607027809074</v>
+        <v>0.00780763742160375</v>
       </c>
       <c r="E56">
-        <v>-0.008926548580700954</v>
+        <v>-0.04014436027676822</v>
       </c>
       <c r="F56">
-        <v>0.05381070718634859</v>
+        <v>0.04200537657808023</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.05034712786901197</v>
+        <v>-0.0464233999306267</v>
       </c>
       <c r="C58">
-        <v>0.01908384728655721</v>
+        <v>0.00164109413905629</v>
       </c>
       <c r="D58">
-        <v>-0.001865754082805907</v>
+        <v>0.06600434674086636</v>
       </c>
       <c r="E58">
-        <v>0.05254466213839227</v>
+        <v>-0.02409857481460161</v>
       </c>
       <c r="F58">
-        <v>0.0228570135801116</v>
+        <v>-0.04408805604197902</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.175210568620539</v>
+        <v>-0.1726048480635645</v>
       </c>
       <c r="C59">
-        <v>-0.2542255639134111</v>
+        <v>0.01696058761854969</v>
       </c>
       <c r="D59">
-        <v>0.03746792964551132</v>
+        <v>-0.2232147542298791</v>
       </c>
       <c r="E59">
-        <v>-0.04709312499469295</v>
+        <v>0.04968535574326605</v>
       </c>
       <c r="F59">
-        <v>0.01298767065759843</v>
+        <v>-0.03250459342191233</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2741290650270669</v>
+        <v>-0.2357746284865107</v>
       </c>
       <c r="C60">
-        <v>0.1724595042925456</v>
+        <v>-0.003898644560247904</v>
       </c>
       <c r="D60">
-        <v>-0.02756481132498998</v>
+        <v>0.04798431876891747</v>
       </c>
       <c r="E60">
-        <v>-0.06199013605700712</v>
+        <v>-0.007535382532865772</v>
       </c>
       <c r="F60">
-        <v>0.1846799808307446</v>
+        <v>-0.03076362722918423</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1166109592671377</v>
+        <v>-0.0829757424079505</v>
       </c>
       <c r="C61">
-        <v>0.07187493511154784</v>
+        <v>0.01303210012497366</v>
       </c>
       <c r="D61">
-        <v>0.04419728073523847</v>
+        <v>0.1142899753162997</v>
       </c>
       <c r="E61">
-        <v>-0.08737002431547251</v>
+        <v>-0.04249752355141959</v>
       </c>
       <c r="F61">
-        <v>0.03130119835525171</v>
+        <v>0.01212869551840343</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1564665089636757</v>
+        <v>-0.1700037765403022</v>
       </c>
       <c r="C62">
-        <v>0.04306198601388628</v>
+        <v>0.01786403071176684</v>
       </c>
       <c r="D62">
-        <v>0.0300027510878394</v>
+        <v>0.01176187629626397</v>
       </c>
       <c r="E62">
-        <v>0.007659490141564046</v>
+        <v>-0.03687618098376896</v>
       </c>
       <c r="F62">
-        <v>0.04655439633646673</v>
+        <v>0.02303865971594179</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03641366668240584</v>
+        <v>-0.04202053367810237</v>
       </c>
       <c r="C63">
-        <v>-0.01040420567445757</v>
+        <v>0.002930087231496146</v>
       </c>
       <c r="D63">
-        <v>0.008113873759614341</v>
+        <v>0.0518777198734553</v>
       </c>
       <c r="E63">
-        <v>-0.002412201469952122</v>
+        <v>-0.02251824621883159</v>
       </c>
       <c r="F63">
-        <v>-0.04441451484957956</v>
+        <v>0.005232411759850531</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09402750390482008</v>
+        <v>-0.1117289137607642</v>
       </c>
       <c r="C64">
-        <v>0.02175487274106596</v>
+        <v>0.01125233668535212</v>
       </c>
       <c r="D64">
-        <v>0.001528235252003948</v>
+        <v>0.04384667326159528</v>
       </c>
       <c r="E64">
-        <v>-0.009751488399044585</v>
+        <v>-0.02071960610833484</v>
       </c>
       <c r="F64">
-        <v>0.06417815953564228</v>
+        <v>0.02543008411410442</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1150471162107628</v>
+        <v>-0.1459041368382803</v>
       </c>
       <c r="C65">
-        <v>-0.008884976460991588</v>
+        <v>0.03128394377123133</v>
       </c>
       <c r="D65">
-        <v>0.009901740772619004</v>
+        <v>-0.04356570512956407</v>
       </c>
       <c r="E65">
-        <v>-0.008935826862350855</v>
+        <v>0.001117567068849243</v>
       </c>
       <c r="F65">
-        <v>-0.05989676086503112</v>
+        <v>0.04918942480710057</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.14295895495372</v>
+        <v>-0.1287527853530499</v>
       </c>
       <c r="C66">
-        <v>0.1307736704875759</v>
+        <v>0.01471031675045784</v>
       </c>
       <c r="D66">
-        <v>0.05626527387501137</v>
+        <v>0.1427335868100468</v>
       </c>
       <c r="E66">
-        <v>-0.1208598466310521</v>
+        <v>-0.06934371607338405</v>
       </c>
       <c r="F66">
-        <v>0.02241089091271434</v>
+        <v>0.02939676845080903</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0659228780685662</v>
+        <v>-0.06195307586927599</v>
       </c>
       <c r="C67">
-        <v>0.04485156517826371</v>
+        <v>0.003219777935959191</v>
       </c>
       <c r="D67">
-        <v>0.08582205289076257</v>
+        <v>0.05350874084133711</v>
       </c>
       <c r="E67">
-        <v>0.02006359949652809</v>
+        <v>-0.01753022194426084</v>
       </c>
       <c r="F67">
-        <v>0.02338080841244126</v>
+        <v>-0.04085277963863401</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.09710510544802006</v>
+        <v>-0.1171628511936726</v>
       </c>
       <c r="C68">
-        <v>-0.2686020197439071</v>
+        <v>0.02678501437793666</v>
       </c>
       <c r="D68">
-        <v>0.004041564341231492</v>
+        <v>-0.2613911716177474</v>
       </c>
       <c r="E68">
-        <v>-0.04395786250265087</v>
+        <v>0.08822007348689061</v>
       </c>
       <c r="F68">
-        <v>-0.03343724651793456</v>
+        <v>0.03196017907602535</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03277182141506244</v>
+        <v>-0.03924821976729975</v>
       </c>
       <c r="C69">
-        <v>-0.004873976447642302</v>
+        <v>0.0009719883181647109</v>
       </c>
       <c r="D69">
-        <v>0.0327449741289391</v>
+        <v>0.009765174716544983</v>
       </c>
       <c r="E69">
-        <v>0.0006001107630613472</v>
+        <v>-0.02417860726164146</v>
       </c>
       <c r="F69">
-        <v>0.01661785331175782</v>
+        <v>-0.01060513794700516</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03208603635139286</v>
+        <v>-0.06243578792033894</v>
       </c>
       <c r="C70">
-        <v>-0.007364451646526323</v>
+        <v>-0.02838830754205126</v>
       </c>
       <c r="D70">
-        <v>0.0422797659143638</v>
+        <v>0.03024023785885882</v>
       </c>
       <c r="E70">
-        <v>-0.03867625863882852</v>
+        <v>0.05119701593528411</v>
       </c>
       <c r="F70">
-        <v>0.03617991804857582</v>
+        <v>-0.2747610638436984</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1126261278767998</v>
+        <v>-0.136410019954421</v>
       </c>
       <c r="C71">
-        <v>-0.2879544108892589</v>
+        <v>0.03104872931282596</v>
       </c>
       <c r="D71">
-        <v>0.01791914103855257</v>
+        <v>-0.2764422025801842</v>
       </c>
       <c r="E71">
-        <v>-0.03753931202660266</v>
+        <v>0.09653303104836509</v>
       </c>
       <c r="F71">
-        <v>0.01204102835762553</v>
+        <v>0.03789201469591573</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1434922907828481</v>
+        <v>-0.140921597306585</v>
       </c>
       <c r="C72">
-        <v>-0.002284557342351842</v>
+        <v>0.02477266269046554</v>
       </c>
       <c r="D72">
-        <v>0.001866230086372268</v>
+        <v>0.004528916991706614</v>
       </c>
       <c r="E72">
-        <v>0.01065132309690764</v>
+        <v>-0.0452066497389538</v>
       </c>
       <c r="F72">
-        <v>-0.007957731941888785</v>
+        <v>0.0241489740980617</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2270840932091828</v>
+        <v>-0.2030802820985251</v>
       </c>
       <c r="C73">
-        <v>0.02948063856999316</v>
+        <v>0.01179277939962455</v>
       </c>
       <c r="D73">
-        <v>0.05027522717525533</v>
+        <v>0.01596908342395019</v>
       </c>
       <c r="E73">
-        <v>-0.06327128778542969</v>
+        <v>-0.06302905305881483</v>
       </c>
       <c r="F73">
-        <v>0.1234747657058809</v>
+        <v>0.03276302885052238</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1166539178240351</v>
+        <v>-0.09445722119325753</v>
       </c>
       <c r="C74">
-        <v>0.05443782081238673</v>
+        <v>0.01225402618965528</v>
       </c>
       <c r="D74">
-        <v>0.02672922197794588</v>
+        <v>0.02098501588265793</v>
       </c>
       <c r="E74">
-        <v>0.01018684719073088</v>
+        <v>-0.04884325759788485</v>
       </c>
       <c r="F74">
-        <v>0.02113956716574663</v>
+        <v>0.04895813528336042</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1177035752835081</v>
+        <v>-0.129424265178442</v>
       </c>
       <c r="C75">
-        <v>0.05470478568688756</v>
+        <v>0.02655218248670337</v>
       </c>
       <c r="D75">
-        <v>0.006066003707777593</v>
+        <v>0.03446958623534811</v>
       </c>
       <c r="E75">
-        <v>0.009374607938113682</v>
+        <v>-0.06088587480297354</v>
       </c>
       <c r="F75">
-        <v>-0.008129667821941015</v>
+        <v>0.01371003826135189</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.01929990776352836</v>
+        <v>-0.003470393784074785</v>
       </c>
       <c r="C76">
-        <v>-0.01584512746335038</v>
+        <v>0.0008242046690640367</v>
       </c>
       <c r="D76">
-        <v>0.01121288995548521</v>
+        <v>-0.0023801150298726</v>
       </c>
       <c r="E76">
-        <v>-0.0072118916598469</v>
+        <v>-0.000428581391916882</v>
       </c>
       <c r="F76">
-        <v>0.01809000072239099</v>
+        <v>0.003973726031356701</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07114384038488832</v>
+        <v>-0.07862615007866768</v>
       </c>
       <c r="C77">
-        <v>0.0667545651565615</v>
+        <v>0.009254681014104009</v>
       </c>
       <c r="D77">
-        <v>-0.01707573512359487</v>
+        <v>0.1159378446768384</v>
       </c>
       <c r="E77">
-        <v>-0.006097239256476045</v>
+        <v>-0.03822322595997214</v>
       </c>
       <c r="F77">
-        <v>0.04859518171726607</v>
+        <v>0.03101184414265192</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1197760463546458</v>
+        <v>-0.1043861292850718</v>
       </c>
       <c r="C78">
-        <v>0.03900958858009708</v>
+        <v>0.04071294660145732</v>
       </c>
       <c r="D78">
-        <v>0.08642822976220853</v>
+        <v>0.1157299876025956</v>
       </c>
       <c r="E78">
-        <v>0.3212849962011288</v>
+        <v>-0.08122087987794407</v>
       </c>
       <c r="F78">
-        <v>-0.2889937541686737</v>
+        <v>0.0696457128713209</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1335522321330595</v>
+        <v>-0.1640956294497689</v>
       </c>
       <c r="C79">
-        <v>0.04743466732791086</v>
+        <v>0.02061484418496667</v>
       </c>
       <c r="D79">
-        <v>-0.01473710066208446</v>
+        <v>0.01945935332528215</v>
       </c>
       <c r="E79">
-        <v>0.0006932656086436616</v>
+        <v>-0.04984785221699378</v>
       </c>
       <c r="F79">
-        <v>0.02326991464804182</v>
+        <v>0.004550388059660809</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08191634771198841</v>
+        <v>-0.08092150099874267</v>
       </c>
       <c r="C80">
-        <v>0.07670677121236565</v>
+        <v>-0.0009441684241984909</v>
       </c>
       <c r="D80">
-        <v>0.0799081389667439</v>
+        <v>0.05760122306018006</v>
       </c>
       <c r="E80">
-        <v>-0.02646590925333956</v>
+        <v>-0.03673462696154748</v>
       </c>
       <c r="F80">
-        <v>0.006393480757624499</v>
+        <v>-0.01641872063084172</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.138301567858055</v>
+        <v>-0.1232474864855207</v>
       </c>
       <c r="C81">
-        <v>0.0687139911722135</v>
+        <v>0.0303885340522208</v>
       </c>
       <c r="D81">
-        <v>0.01404818915886134</v>
+        <v>0.01872035244714539</v>
       </c>
       <c r="E81">
-        <v>0.00845850267554746</v>
+        <v>-0.06005814515763274</v>
       </c>
       <c r="F81">
-        <v>0.01858142038387205</v>
+        <v>0.006449942733958552</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1583337416799268</v>
+        <v>-0.1640655036303643</v>
       </c>
       <c r="C82">
-        <v>0.04543694160652319</v>
+        <v>0.02215860120895088</v>
       </c>
       <c r="D82">
-        <v>0.0321058090090229</v>
+        <v>0.01402425462416237</v>
       </c>
       <c r="E82">
-        <v>-0.0233331807118536</v>
+        <v>-0.03612824885637077</v>
       </c>
       <c r="F82">
-        <v>0.04036006274519871</v>
+        <v>0.06696075288592079</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.09348840815565275</v>
+        <v>-0.06245067828875769</v>
       </c>
       <c r="C83">
-        <v>0.1110388219143389</v>
+        <v>0.003226054633580468</v>
       </c>
       <c r="D83">
-        <v>-0.009997063847569395</v>
+        <v>0.05078202288002991</v>
       </c>
       <c r="E83">
-        <v>0.03691497372188681</v>
+        <v>-0.005216372648866825</v>
       </c>
       <c r="F83">
-        <v>-0.02511286575476761</v>
+        <v>-0.04317155752757409</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0646814624067887</v>
+        <v>-0.05897421287179506</v>
       </c>
       <c r="C84">
-        <v>-0.007798566361841035</v>
+        <v>0.0109056028843801</v>
       </c>
       <c r="D84">
-        <v>-0.01003139197508665</v>
+        <v>0.06474270689147457</v>
       </c>
       <c r="E84">
-        <v>-0.07185748198610288</v>
+        <v>-0.003500069376378576</v>
       </c>
       <c r="F84">
-        <v>0.05730951136272993</v>
+        <v>0.01143424693734036</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1255277730220522</v>
+        <v>-0.1390035984280243</v>
       </c>
       <c r="C85">
-        <v>0.03701371798085849</v>
+        <v>0.02618890848675426</v>
       </c>
       <c r="D85">
-        <v>0.01108126557110961</v>
+        <v>0.01515235689896731</v>
       </c>
       <c r="E85">
-        <v>0.0004556191551018509</v>
+        <v>-0.0416735529614979</v>
       </c>
       <c r="F85">
-        <v>0.03814930523857054</v>
+        <v>0.0459555385604465</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1598632577264898</v>
+        <v>-0.09495279896266182</v>
       </c>
       <c r="C86">
-        <v>0.06000216484781289</v>
+        <v>-0.006775704465115264</v>
       </c>
       <c r="D86">
-        <v>-0.9350341097675126</v>
+        <v>0.0229185204359726</v>
       </c>
       <c r="E86">
-        <v>0.06740789985803622</v>
+        <v>-0.1495032202802463</v>
       </c>
       <c r="F86">
-        <v>-0.04044408475239405</v>
+        <v>-0.870560080637259</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1210458789584081</v>
+        <v>-0.09624326873344234</v>
       </c>
       <c r="C87">
-        <v>0.1065583419718478</v>
+        <v>0.02221269415620065</v>
       </c>
       <c r="D87">
-        <v>0.0130224449118543</v>
+        <v>0.08977110479645548</v>
       </c>
       <c r="E87">
-        <v>-0.006843237825843641</v>
+        <v>0.0541228795299382</v>
       </c>
       <c r="F87">
-        <v>0.03785715120706609</v>
+        <v>0.08122070084820163</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05162224886304193</v>
+        <v>-0.06093468127840812</v>
       </c>
       <c r="C88">
-        <v>0.03088853926283257</v>
+        <v>0.002787583043446586</v>
       </c>
       <c r="D88">
-        <v>0.02317051229061609</v>
+        <v>0.05382893861571983</v>
       </c>
       <c r="E88">
-        <v>-0.05761108693937941</v>
+        <v>-0.02759606973342906</v>
       </c>
       <c r="F88">
-        <v>0.004847339168778833</v>
+        <v>0.008083869011686749</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1647107458239528</v>
+        <v>-0.1363070573515061</v>
       </c>
       <c r="C89">
-        <v>-0.3665943348828892</v>
+        <v>0.009323303718610249</v>
       </c>
       <c r="D89">
-        <v>0.01759928599248254</v>
+        <v>-0.2549094580732701</v>
       </c>
       <c r="E89">
-        <v>0.03717204337935742</v>
+        <v>0.09274124813333837</v>
       </c>
       <c r="F89">
-        <v>0.02573584716103557</v>
+        <v>0.016385084682786</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1250334932894953</v>
+        <v>-0.1477694873366124</v>
       </c>
       <c r="C90">
-        <v>-0.2726725136530005</v>
+        <v>0.02683030637754881</v>
       </c>
       <c r="D90">
-        <v>0.009068139963452525</v>
+        <v>-0.2665779177406636</v>
       </c>
       <c r="E90">
-        <v>-0.05576129305957468</v>
+        <v>0.1093635696244894</v>
       </c>
       <c r="F90">
-        <v>0.01250825912629064</v>
+        <v>0.02067511088531484</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08339261621734122</v>
+        <v>-0.119437090606906</v>
       </c>
       <c r="C91">
-        <v>0.04369503567478647</v>
+        <v>0.01685733970558249</v>
       </c>
       <c r="D91">
-        <v>-0.01390785385334532</v>
+        <v>-0.008032939607137484</v>
       </c>
       <c r="E91">
-        <v>0.000606077769926443</v>
+        <v>-0.05758376567306822</v>
       </c>
       <c r="F91">
-        <v>0.0304550147521314</v>
+        <v>-0.01684113213017729</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1398768479236216</v>
+        <v>-0.1505966226500555</v>
       </c>
       <c r="C92">
-        <v>-0.3219231851433854</v>
+        <v>0.018570699887333</v>
       </c>
       <c r="D92">
-        <v>0.01312245302845109</v>
+        <v>-0.2949343597684591</v>
       </c>
       <c r="E92">
-        <v>0.00928195286022728</v>
+        <v>0.1051978432355927</v>
       </c>
       <c r="F92">
-        <v>-0.003714528128879915</v>
+        <v>0.01565494439787471</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1279640218696725</v>
+        <v>-0.1519485044226849</v>
       </c>
       <c r="C93">
-        <v>-0.3208997008754282</v>
+        <v>0.02283496676334719</v>
       </c>
       <c r="D93">
-        <v>-0.008287327155210496</v>
+        <v>-0.2660871794812605</v>
       </c>
       <c r="E93">
-        <v>-0.08233545054324873</v>
+        <v>0.07632053258618031</v>
       </c>
       <c r="F93">
-        <v>0.02239228875540668</v>
+        <v>0.01514194300632083</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1387673833742801</v>
+        <v>-0.1326783870565624</v>
       </c>
       <c r="C94">
-        <v>0.051386687730761</v>
+        <v>0.0238025613292148</v>
       </c>
       <c r="D94">
-        <v>0.0422525136811321</v>
+        <v>0.0458852935283831</v>
       </c>
       <c r="E94">
-        <v>0.02111448729056097</v>
+        <v>-0.06135939638387012</v>
       </c>
       <c r="F94">
-        <v>0.02015040878690997</v>
+        <v>0.03223039146603138</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1138529986149097</v>
+        <v>-0.1256471720650669</v>
       </c>
       <c r="C95">
-        <v>0.02736226896855794</v>
+        <v>0.005195199644651763</v>
       </c>
       <c r="D95">
-        <v>0.02640230295987537</v>
+        <v>0.08948870852735202</v>
       </c>
       <c r="E95">
-        <v>0.02682083533128158</v>
+        <v>-0.04424333497989117</v>
       </c>
       <c r="F95">
-        <v>0.04171477604374776</v>
+        <v>-0.01505701829522934</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01380529927360321</v>
+        <v>-0.09892377605100762</v>
       </c>
       <c r="C96">
-        <v>0.0008936104975255945</v>
+        <v>-0.9888085396884968</v>
       </c>
       <c r="D96">
-        <v>-0.002138136507634628</v>
+        <v>-0.03315593430963584</v>
       </c>
       <c r="E96">
-        <v>0.007428356435720473</v>
+        <v>-0.0584785116915346</v>
       </c>
       <c r="F96">
-        <v>-0.003800906862181698</v>
+        <v>0.04624944161287507</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1761845228193805</v>
+        <v>-0.1891767573764512</v>
       </c>
       <c r="C97">
-        <v>0.04437481803334514</v>
+        <v>-0.01061189532075767</v>
       </c>
       <c r="D97">
-        <v>0.05261534722386475</v>
+        <v>-0.008774187423631317</v>
       </c>
       <c r="E97">
-        <v>0.1124569269934921</v>
+        <v>-0.0170344267078591</v>
       </c>
       <c r="F97">
-        <v>-0.8534297696690339</v>
+        <v>-0.1575370551768839</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2421245475841504</v>
+        <v>-0.2052845335986824</v>
       </c>
       <c r="C98">
-        <v>0.0008840402202609413</v>
+        <v>0.007014795686148396</v>
       </c>
       <c r="D98">
-        <v>-0.01366918421105844</v>
+        <v>0.01018347670537949</v>
       </c>
       <c r="E98">
-        <v>0.08816708799820548</v>
+        <v>0.09858739173013979</v>
       </c>
       <c r="F98">
-        <v>0.01448381774828577</v>
+        <v>-0.1105272727982137</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.03970364328684191</v>
+        <v>-0.05551793580053649</v>
       </c>
       <c r="C99">
-        <v>-0.0162363060849878</v>
+        <v>-0.00392076096055842</v>
       </c>
       <c r="D99">
-        <v>0.03547237339855853</v>
+        <v>0.03616331283094128</v>
       </c>
       <c r="E99">
-        <v>0.02008594187922253</v>
+        <v>-0.02741242867342969</v>
       </c>
       <c r="F99">
-        <v>0.008522621579761927</v>
+        <v>0.002941762732687015</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.04291269697877407</v>
+        <v>-0.1222621595186636</v>
       </c>
       <c r="C100">
-        <v>0.07933290489438954</v>
+        <v>-0.05173197495560604</v>
       </c>
       <c r="D100">
-        <v>0.2001769393842505</v>
+        <v>0.3502577792930039</v>
       </c>
       <c r="E100">
-        <v>-0.04341794776726727</v>
+        <v>0.8929307837791777</v>
       </c>
       <c r="F100">
-        <v>-0.04783735618921751</v>
+        <v>-0.07123286599085642</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02932417319652798</v>
+        <v>-0.02695024703400463</v>
       </c>
       <c r="C101">
-        <v>0.01526304012294124</v>
+        <v>0.008775992362061509</v>
       </c>
       <c r="D101">
-        <v>0.002882452857941165</v>
+        <v>0.02975318505276252</v>
       </c>
       <c r="E101">
-        <v>-0.03850885654672865</v>
+        <v>-0.0114352464624108</v>
       </c>
       <c r="F101">
-        <v>0.03276349657357146</v>
+        <v>-0.01609317448294953</v>
       </c>
     </row>
     <row r="102" spans="1:6">
